--- a/test/client/Excel/Person.xlsx
+++ b/test/client/Excel/Person.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phixer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Wander\GitHub\iyouc\Excel\test\client\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEE1E4F-50B5-41F0-A38E-C93780287850}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7799A00D-ED99-496C-9A3E-CE760A81C8D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1830" yWindow="1785" windowWidth="24840" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="person" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,10 @@
   </si>
   <si>
     <t>gy@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Female</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -132,10 +136,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -420,7 +425,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -460,10 +465,10 @@
       <c r="C2">
         <v>32</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3">
         <v>13986788888</v>
       </c>
       <c r="F2" s="2">
@@ -480,8 +485,8 @@
       <c r="C3">
         <v>36</v>
       </c>
-      <c r="D3">
-        <v>2</v>
+      <c r="D3" t="s">
+        <v>14</v>
       </c>
       <c r="E3">
         <v>13986288888</v>
@@ -500,8 +505,8 @@
       <c r="C4">
         <v>320000</v>
       </c>
-      <c r="D4">
-        <v>2</v>
+      <c r="D4" t="s">
+        <v>14</v>
       </c>
       <c r="E4">
         <v>13986188888</v>
@@ -520,8 +525,8 @@
       <c r="C5">
         <v>3200</v>
       </c>
-      <c r="D5">
-        <v>2</v>
+      <c r="D5" t="s">
+        <v>14</v>
       </c>
       <c r="E5">
         <v>13986388888</v>
